--- a/Modello/nuovi modelli/inputTesiOriginali/test5/Soluzioni-6.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test5/Soluzioni-6.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10450" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40457" uniqueCount="790">
   <si>
     <t>ANSPs</t>
   </si>

--- a/Modello/nuovi modelli/inputTesiOriginali/test5/Soluzioni-6.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test5/Soluzioni-6.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40457" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61806" uniqueCount="790">
   <si>
     <t>ANSPs</t>
   </si>
@@ -31093,7 +31093,7 @@
         <v>43</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>90</v>
@@ -31105,43 +31105,43 @@
         <v>90</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>90</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>90</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="P7" s="5" t="s">
         <v>90</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="S7" s="5" t="s">
         <v>90</v>
@@ -31150,7 +31150,7 @@
         <v>90</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="V7" s="5" t="s">
         <v>90</v>
@@ -31174,7 +31174,7 @@
         <v>90</v>
       </c>
       <c r="AC7" s="5" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="AD7" s="5" t="s">
         <v>90</v>
@@ -31186,7 +31186,7 @@
         <v>90</v>
       </c>
       <c r="AG7" s="5" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="AH7" s="5" t="s">
         <v>90</v>
@@ -31198,7 +31198,7 @@
         <v>90</v>
       </c>
       <c r="AK7" s="5" t="s">
-        <v>768</v>
+        <v>755</v>
       </c>
       <c r="AL7" s="5" t="s">
         <v>90</v>
@@ -31911,7 +31911,7 @@
         <v>90</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>90</v>
@@ -31923,7 +31923,7 @@
         <v>90</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>90</v>
@@ -31941,7 +31941,7 @@
         <v>90</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="O14" s="5" t="s">
         <v>90</v>
@@ -31980,7 +31980,7 @@
         <v>90</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="AB14" s="5" t="s">
         <v>90</v>
@@ -31995,7 +31995,7 @@
         <v>90</v>
       </c>
       <c r="AF14" s="5" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="AG14" s="5" t="s">
         <v>90</v>
@@ -32010,10 +32010,10 @@
         <v>90</v>
       </c>
       <c r="AK14" s="5" t="s">
-        <v>769</v>
+        <v>756</v>
       </c>
       <c r="AL14" s="5" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
     </row>
     <row r="15">
@@ -32488,7 +32488,7 @@
         <v>90</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>90</v>
@@ -32536,7 +32536,7 @@
         <v>90</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="T19" s="5" t="s">
         <v>90</v>
@@ -32581,7 +32581,7 @@
         <v>90</v>
       </c>
       <c r="AH19" s="5" t="s">
-        <v>675</v>
+        <v>660</v>
       </c>
       <c r="AI19" s="5" t="s">
         <v>90</v>
@@ -32655,7 +32655,7 @@
         <v>90</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="U20" s="5" t="s">
         <v>90</v>
@@ -32697,7 +32697,7 @@
         <v>90</v>
       </c>
       <c r="AH20" s="5" t="s">
-        <v>676</v>
+        <v>661</v>
       </c>
       <c r="AI20" s="5" t="s">
         <v>90</v>
@@ -32839,7 +32839,7 @@
         <v>90</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>90</v>
@@ -32893,7 +32893,7 @@
         <v>90</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="W22" s="5" t="s">
         <v>90</v>
@@ -32908,7 +32908,7 @@
         <v>90</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="AB22" s="5" t="s">
         <v>90</v>
@@ -32923,19 +32923,19 @@
         <v>90</v>
       </c>
       <c r="AF22" s="5" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="AG22" s="5" t="s">
         <v>90</v>
       </c>
       <c r="AH22" s="5" t="s">
-        <v>677</v>
+        <v>662</v>
       </c>
       <c r="AI22" s="5" t="s">
         <v>90</v>
       </c>
       <c r="AJ22" s="5" t="s">
-        <v>736</v>
+        <v>722</v>
       </c>
       <c r="AK22" s="5" t="s">
         <v>90</v>
@@ -33012,7 +33012,7 @@
         <v>90</v>
       </c>
       <c r="W23" s="5" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="X23" s="5" t="s">
         <v>90</v>
@@ -33051,7 +33051,7 @@
         <v>90</v>
       </c>
       <c r="AJ23" s="5" t="s">
-        <v>737</v>
+        <v>723</v>
       </c>
       <c r="AK23" s="5" t="s">
         <v>90</v>
@@ -33223,7 +33223,7 @@
         <v>90</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="Q25" s="5" t="s">
         <v>90</v>
@@ -33250,7 +33250,7 @@
         <v>90</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="Z25" s="5" t="s">
         <v>90</v>
@@ -33277,7 +33277,7 @@
         <v>90</v>
       </c>
       <c r="AH25" s="5" t="s">
-        <v>678</v>
+        <v>663</v>
       </c>
       <c r="AI25" s="5" t="s">
         <v>90</v>
@@ -33289,7 +33289,7 @@
         <v>90</v>
       </c>
       <c r="AL25" s="5" t="s">
-        <v>788</v>
+        <v>777</v>
       </c>
     </row>
     <row r="26">
@@ -33303,7 +33303,7 @@
         <v>90</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>90</v>
@@ -33369,10 +33369,10 @@
         <v>90</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="AB26" s="5" t="s">
         <v>90</v>
@@ -33387,7 +33387,7 @@
         <v>90</v>
       </c>
       <c r="AF26" s="5" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="AG26" s="5" t="s">
         <v>90</v>
@@ -33529,55 +33529,55 @@
         <v>64</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>90</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="N28" s="5" t="s">
         <v>90</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="S28" s="5" t="s">
         <v>90</v>
@@ -33586,7 +33586,7 @@
         <v>90</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="V28" s="5" t="s">
         <v>90</v>
@@ -33595,7 +33595,7 @@
         <v>90</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="Y28" s="5" t="s">
         <v>90</v>
@@ -33607,13 +33607,13 @@
         <v>90</v>
       </c>
       <c r="AB28" s="5" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="AC28" s="5" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="AD28" s="5" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="AE28" s="5" t="s">
         <v>90</v>
@@ -33622,19 +33622,19 @@
         <v>90</v>
       </c>
       <c r="AG28" s="5" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="AH28" s="5" t="s">
         <v>90</v>
       </c>
       <c r="AI28" s="5" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="AJ28" s="5" t="s">
-        <v>738</v>
+        <v>724</v>
       </c>
       <c r="AK28" s="5" t="s">
-        <v>770</v>
+        <v>757</v>
       </c>
       <c r="AL28" s="5" t="s">
         <v>90</v>
@@ -33880,13 +33880,13 @@
         <v>90</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>90</v>
@@ -33919,7 +33919,7 @@
         <v>90</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="Q31" s="5" t="s">
         <v>90</v>
@@ -33964,7 +33964,7 @@
         <v>90</v>
       </c>
       <c r="AE31" s="5" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="AF31" s="5" t="s">
         <v>90</v>
@@ -34805,115 +34805,115 @@
         <v>79</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="S39" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="V39" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="W39" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="X39" s="4" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="Y39" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="Z39" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="AA39" s="4" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="AB39" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="AC39" s="4" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="AD39" s="4" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="AE39" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="AF39" s="4" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="AG39" s="4" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="AH39" s="4" t="s">
-        <v>679</v>
+        <v>664</v>
       </c>
       <c r="AI39" s="4" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="AJ39" s="4" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
       <c r="AK39" s="4" t="s">
-        <v>771</v>
+        <v>758</v>
       </c>
       <c r="AL39" s="4" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
     </row>
     <row r="40">
@@ -34921,115 +34921,115 @@
         <v>85</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="S40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="V40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="W40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="X40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="Y40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="Z40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="AB40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="AC40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="AD40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="AE40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="AF40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="AG40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="AH40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="AI40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="AJ40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="AK40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="AL40" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41">
@@ -35037,115 +35037,115 @@
         <v>86</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>108</v>
+        <v>194</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>108</v>
+        <v>231</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>108</v>
+        <v>261</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>108</v>
+        <v>289</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>108</v>
+        <v>302</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>108</v>
+        <v>315</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>108</v>
+        <v>329</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>108</v>
+        <v>363</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>108</v>
+        <v>381</v>
       </c>
       <c r="Q41" s="4" t="s">
-        <v>108</v>
+        <v>412</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>108</v>
+        <v>440</v>
       </c>
       <c r="S41" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>108</v>
+        <v>479</v>
       </c>
       <c r="V41" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="W41" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="X41" s="4" t="s">
-        <v>108</v>
+        <v>517</v>
       </c>
       <c r="Y41" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="Z41" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="AA41" s="4" t="s">
-        <v>108</v>
+        <v>540</v>
       </c>
       <c r="AB41" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="AC41" s="4" t="s">
-        <v>108</v>
+        <v>562</v>
       </c>
       <c r="AD41" s="4" t="s">
-        <v>108</v>
+        <v>588</v>
       </c>
       <c r="AE41" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="AF41" s="4" t="s">
-        <v>108</v>
+        <v>618</v>
       </c>
       <c r="AG41" s="4" t="s">
-        <v>108</v>
+        <v>647</v>
       </c>
       <c r="AH41" s="4" t="s">
-        <v>108</v>
+        <v>664</v>
       </c>
       <c r="AI41" s="4" t="s">
-        <v>108</v>
+        <v>694</v>
       </c>
       <c r="AJ41" s="4" t="s">
-        <v>108</v>
+        <v>725</v>
       </c>
       <c r="AK41" s="4" t="s">
-        <v>108</v>
+        <v>758</v>
       </c>
       <c r="AL41" s="4" t="s">
-        <v>108</v>
+        <v>778</v>
       </c>
     </row>
     <row r="42">
